--- a/Magnet equations.xlsx
+++ b/Magnet equations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steph\Documents\GitHub\Hallbach_cylinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55092E76-A95E-4CFC-B7CB-ED215D3AE5A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359DD946-3D1C-40A9-A488-6DE371BA5E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CC3A6801-4CA5-497E-A382-48F1557FC016}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Magnet coordinates</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>°</t>
+  </si>
+  <si>
+    <t>Calculating components of magnetic field given position</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277B90FC-62E4-415C-9EEE-DC15EB8DE9CE}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,6 +1935,11 @@
         <v>16.886206679761532</v>
       </c>
     </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>37</v>
